--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-body-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -4844,7 +4844,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>123</v>
@@ -13375,7 +13375,7 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="Y91" t="s" s="2">
         <v>651</v>
